--- a/data/pca/factorExposure/factorExposure_2013-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001429438157662005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001985036259871786</v>
+      </c>
+      <c r="C2">
+        <v>-0.03289930153740429</v>
+      </c>
+      <c r="D2">
+        <v>-0.006885608352982298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002179494133980153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006014186127961449</v>
+      </c>
+      <c r="C4">
+        <v>-0.08440749132050547</v>
+      </c>
+      <c r="D4">
+        <v>-0.07817110761302759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0008158698824892247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01340241625930263</v>
+      </c>
+      <c r="C6">
+        <v>-0.1082592620867461</v>
+      </c>
+      <c r="D6">
+        <v>-0.03411800585829963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002644591923248387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004797899234710026</v>
+      </c>
+      <c r="C7">
+        <v>-0.05247113469674366</v>
+      </c>
+      <c r="D7">
+        <v>-0.04060555142141382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001098153314964264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005643677858883807</v>
+      </c>
+      <c r="C8">
+        <v>-0.03657287787551099</v>
+      </c>
+      <c r="D8">
+        <v>-0.03968159960011973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005825753483674325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003972257656411337</v>
+      </c>
+      <c r="C9">
+        <v>-0.06945472583301131</v>
+      </c>
+      <c r="D9">
+        <v>-0.07092841248067096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002915971839484506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00572262871701176</v>
+      </c>
+      <c r="C10">
+        <v>-0.07427505286084311</v>
+      </c>
+      <c r="D10">
+        <v>0.2104072054227869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004192396654851922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005197299101486191</v>
+      </c>
+      <c r="C11">
+        <v>-0.0777365736826315</v>
+      </c>
+      <c r="D11">
+        <v>-0.06559283355747574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005360377540344716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003986741978271868</v>
+      </c>
+      <c r="C12">
+        <v>-0.06360681011423551</v>
+      </c>
+      <c r="D12">
+        <v>-0.04781731829957981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003228093919103182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008564038509287173</v>
+      </c>
+      <c r="C13">
+        <v>-0.06905225901259976</v>
+      </c>
+      <c r="D13">
+        <v>-0.06650683366631754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00243149527927351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00153012930332299</v>
+      </c>
+      <c r="C14">
+        <v>-0.04654907507180421</v>
+      </c>
+      <c r="D14">
+        <v>-0.01423043471464423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002870449963237852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005873552182944056</v>
+      </c>
+      <c r="C15">
+        <v>-0.03854015038376627</v>
+      </c>
+      <c r="D15">
+        <v>-0.03631237486106402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002224923178340222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004861620179372975</v>
+      </c>
+      <c r="C16">
+        <v>-0.06427578595941646</v>
+      </c>
+      <c r="D16">
+        <v>-0.04965849385740594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001290990541746645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008919953674221867</v>
+      </c>
+      <c r="C20">
+        <v>-0.0645780866629333</v>
+      </c>
+      <c r="D20">
+        <v>-0.05685766900158613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005719195017152992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009895477159293025</v>
+      </c>
+      <c r="C21">
+        <v>-0.02327156318555437</v>
+      </c>
+      <c r="D21">
+        <v>-0.0351090540758737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01697504698379438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007017631732385568</v>
+      </c>
+      <c r="C22">
+        <v>-0.09209173180837447</v>
+      </c>
+      <c r="D22">
+        <v>-0.0992922763540461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01731721903814422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006811578963584868</v>
+      </c>
+      <c r="C23">
+        <v>-0.09301948702145703</v>
+      </c>
+      <c r="D23">
+        <v>-0.09984194108655349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003170265818064824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.00482448693224112</v>
+      </c>
+      <c r="C24">
+        <v>-0.07291781884992612</v>
+      </c>
+      <c r="D24">
+        <v>-0.06260667471122083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004877793536443042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002688411168407081</v>
+      </c>
+      <c r="C25">
+        <v>-0.07692107306026344</v>
+      </c>
+      <c r="D25">
+        <v>-0.06734596263049822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006482457317116755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003551669781422263</v>
+      </c>
+      <c r="C26">
+        <v>-0.0399434695343114</v>
+      </c>
+      <c r="D26">
+        <v>-0.02830640331676495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007036611406457554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0003068734124750482</v>
+      </c>
+      <c r="C28">
+        <v>-0.1252762752134909</v>
+      </c>
+      <c r="D28">
+        <v>0.3082575087047169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002250093864166715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003229550671402127</v>
+      </c>
+      <c r="C29">
+        <v>-0.04831447346475072</v>
+      </c>
+      <c r="D29">
+        <v>-0.01424972643421044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004595700412411694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008706121771241899</v>
+      </c>
+      <c r="C30">
+        <v>-0.1369831533925955</v>
+      </c>
+      <c r="D30">
+        <v>-0.1101632991609884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0007219829804699814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00607126928123185</v>
+      </c>
+      <c r="C31">
+        <v>-0.0453928857629948</v>
+      </c>
+      <c r="D31">
+        <v>-0.03187317812080091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002053895583616368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004036389572877239</v>
+      </c>
+      <c r="C32">
+        <v>-0.0410151840346132</v>
+      </c>
+      <c r="D32">
+        <v>-0.01644307407613742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.004189124314012455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007715114212338316</v>
+      </c>
+      <c r="C33">
+        <v>-0.08234682663203256</v>
+      </c>
+      <c r="D33">
+        <v>-0.07435166311801707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005230237960714776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003711426480307237</v>
+      </c>
+      <c r="C34">
+        <v>-0.05731839355214846</v>
+      </c>
+      <c r="D34">
+        <v>-0.04777183464190735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00325033232690957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004842702286651348</v>
+      </c>
+      <c r="C35">
+        <v>-0.03842982376324625</v>
+      </c>
+      <c r="D35">
+        <v>-0.01292872268365276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00486261931168507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00135353248320905</v>
+      </c>
+      <c r="C36">
+        <v>-0.02334238581762648</v>
+      </c>
+      <c r="D36">
+        <v>-0.0226851952834173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001718398001584486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009235863168595591</v>
+      </c>
+      <c r="C38">
+        <v>-0.03212137449865689</v>
+      </c>
+      <c r="D38">
+        <v>-0.02154337761048984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01362056506117896</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001014897795897546</v>
+      </c>
+      <c r="C39">
+        <v>-0.1148358147409456</v>
+      </c>
+      <c r="D39">
+        <v>-0.08540174033203317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008230914782800039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002209291225098431</v>
+      </c>
+      <c r="C40">
+        <v>-0.08662358719346963</v>
+      </c>
+      <c r="D40">
+        <v>-0.02245173053102401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.000561225941035872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007350753992184616</v>
+      </c>
+      <c r="C41">
+        <v>-0.03875277114611365</v>
+      </c>
+      <c r="D41">
+        <v>-0.03573798945392212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0036782679002868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003455996578124195</v>
+      </c>
+      <c r="C43">
+        <v>-0.05003226725046379</v>
+      </c>
+      <c r="D43">
+        <v>-0.02792596297802471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004472993681058766</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00353285853719666</v>
+      </c>
+      <c r="C44">
+        <v>-0.1078146789717989</v>
+      </c>
+      <c r="D44">
+        <v>-0.08524909917097645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002758448584995178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002305034719113642</v>
+      </c>
+      <c r="C46">
+        <v>-0.03431451476974908</v>
+      </c>
+      <c r="D46">
+        <v>-0.03270494531943521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007509098261315068</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002770511658430047</v>
+      </c>
+      <c r="C47">
+        <v>-0.03909562694933441</v>
+      </c>
+      <c r="D47">
+        <v>-0.0228237589405203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003935375708866758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006368047349864196</v>
+      </c>
+      <c r="C48">
+        <v>-0.02838510676837991</v>
+      </c>
+      <c r="D48">
+        <v>-0.03204830142117528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01347582078855336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01421858065176267</v>
+      </c>
+      <c r="C49">
+        <v>-0.1715331122826509</v>
+      </c>
+      <c r="D49">
+        <v>-0.03366531246833146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009044374565383972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003607368102069992</v>
+      </c>
+      <c r="C50">
+        <v>-0.04241224098271966</v>
+      </c>
+      <c r="D50">
+        <v>-0.03589087068453307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001853326178962489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004292506847847721</v>
+      </c>
+      <c r="C51">
+        <v>-0.01995422134224804</v>
+      </c>
+      <c r="D51">
+        <v>-0.03292943013197381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002169477532560949</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02024477268372247</v>
+      </c>
+      <c r="C53">
+        <v>-0.1653777765382338</v>
+      </c>
+      <c r="D53">
+        <v>-0.04982967065911453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0001651800570922618</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008578625930156849</v>
+      </c>
+      <c r="C54">
+        <v>-0.05495331393875073</v>
+      </c>
+      <c r="D54">
+        <v>-0.04233741600670148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004722445117235897</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009251551700612756</v>
+      </c>
+      <c r="C55">
+        <v>-0.1053993153276303</v>
+      </c>
+      <c r="D55">
+        <v>-0.05275038322789762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002518699068115714</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0194896423600945</v>
+      </c>
+      <c r="C56">
+        <v>-0.1712786955018472</v>
+      </c>
+      <c r="D56">
+        <v>-0.04961923525690754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008792891331974742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01934540223149991</v>
+      </c>
+      <c r="C58">
+        <v>-0.1026326261048441</v>
+      </c>
+      <c r="D58">
+        <v>-0.07328332760943006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009196878419015094</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009673132052537533</v>
+      </c>
+      <c r="C59">
+        <v>-0.1696020464183099</v>
+      </c>
+      <c r="D59">
+        <v>0.2809495586188656</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00637049436425684</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02328688724661359</v>
+      </c>
+      <c r="C60">
+        <v>-0.221640859640287</v>
+      </c>
+      <c r="D60">
+        <v>-0.02828254145573741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01475458589905603</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002027487814613537</v>
+      </c>
+      <c r="C61">
+        <v>-0.0942872282674376</v>
+      </c>
+      <c r="D61">
+        <v>-0.06377090216830102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1786169266489885</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437245901361808</v>
+      </c>
+      <c r="C62">
+        <v>-0.07792634813647419</v>
+      </c>
+      <c r="D62">
+        <v>-0.05532141371913992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001988116163686959</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006361676121636959</v>
+      </c>
+      <c r="C63">
+        <v>-0.05886866702452374</v>
+      </c>
+      <c r="D63">
+        <v>-0.02640448810778806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006135224730267391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0146789981981134</v>
+      </c>
+      <c r="C64">
+        <v>-0.1023793939936583</v>
+      </c>
+      <c r="D64">
+        <v>-0.06577214274403563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0004802988089182035</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01708865363463139</v>
+      </c>
+      <c r="C65">
+        <v>-0.1152450384247366</v>
+      </c>
+      <c r="D65">
+        <v>-0.02738344015194435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008938921664254132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01216487180796008</v>
+      </c>
+      <c r="C66">
+        <v>-0.1529383865921664</v>
+      </c>
+      <c r="D66">
+        <v>-0.1243248533039922</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002505889843652811</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0153890125940506</v>
+      </c>
+      <c r="C67">
+        <v>-0.06212805698858206</v>
+      </c>
+      <c r="D67">
+        <v>-0.03313913762139052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008767057445104453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001362750618984785</v>
+      </c>
+      <c r="C68">
+        <v>-0.1079008325574563</v>
+      </c>
+      <c r="D68">
+        <v>0.2612482693035463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003012689077737374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005892001103304944</v>
+      </c>
+      <c r="C69">
+        <v>-0.04741283043426833</v>
+      </c>
+      <c r="D69">
+        <v>-0.04251416576881754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001742201912278023</v>
+      </c>
+      <c r="C70">
+        <v>-0.002152704397229751</v>
+      </c>
+      <c r="D70">
+        <v>-0.00205128735089318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.004706460168885845</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006240581167797733</v>
+      </c>
+      <c r="C71">
+        <v>-0.1109170883327914</v>
+      </c>
+      <c r="D71">
+        <v>0.2838273763905744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008662468008534305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01558366901441208</v>
+      </c>
+      <c r="C72">
+        <v>-0.1492661058919016</v>
+      </c>
+      <c r="D72">
+        <v>-0.02408538101074426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01296699509642941</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02923300245195874</v>
+      </c>
+      <c r="C73">
+        <v>-0.2816535507947689</v>
+      </c>
+      <c r="D73">
+        <v>-0.04852102528398039</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004837425792942331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001344622320104586</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045266962714328</v>
+      </c>
+      <c r="D74">
+        <v>-0.04516297851147059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006881581894933761</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0105949804036711</v>
+      </c>
+      <c r="C75">
+        <v>-0.1305293983152794</v>
+      </c>
+      <c r="D75">
+        <v>-0.03552248995496247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01156821453569357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02121719901622762</v>
+      </c>
+      <c r="C76">
+        <v>-0.1464561115950924</v>
+      </c>
+      <c r="D76">
+        <v>-0.07341245050052296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001573430399414197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0242458335272951</v>
+      </c>
+      <c r="C77">
+        <v>-0.1334587557937235</v>
+      </c>
+      <c r="D77">
+        <v>-0.06772022761862624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007693673792173864</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01416341936148058</v>
+      </c>
+      <c r="C78">
+        <v>-0.09201568078458269</v>
+      </c>
+      <c r="D78">
+        <v>-0.06752903048597104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02615691571284059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03678638316360521</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560593476417882</v>
+      </c>
+      <c r="D79">
+        <v>-0.03512086941313852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005101604049569988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0104755366509955</v>
+      </c>
+      <c r="C80">
+        <v>-0.04112704215575728</v>
+      </c>
+      <c r="D80">
+        <v>-0.03443681842070337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.00209842031943509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01442599269469686</v>
+      </c>
+      <c r="C81">
+        <v>-0.1216336960828607</v>
+      </c>
+      <c r="D81">
+        <v>-0.05688745382592467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005445489663254413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01948026364360826</v>
+      </c>
+      <c r="C82">
+        <v>-0.1418178485056954</v>
+      </c>
+      <c r="D82">
+        <v>-0.04726017076126379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007238605670574313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009821343555191469</v>
+      </c>
+      <c r="C83">
+        <v>-0.05567072508651612</v>
+      </c>
+      <c r="D83">
+        <v>-0.0411785091887976</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01326080531537293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168224202896196</v>
+      </c>
+      <c r="C84">
+        <v>-0.03164967141994454</v>
+      </c>
+      <c r="D84">
+        <v>0.0008185341725568674</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01393713599983531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02790360791440261</v>
+      </c>
+      <c r="C85">
+        <v>-0.1282914574413546</v>
+      </c>
+      <c r="D85">
+        <v>-0.05163944220400758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003118271962143409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005547937149163452</v>
+      </c>
+      <c r="C86">
+        <v>-0.04968844747364463</v>
+      </c>
+      <c r="D86">
+        <v>-0.02165221981503624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008188482238025707</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01003561522385051</v>
+      </c>
+      <c r="C87">
+        <v>-0.128066643777229</v>
+      </c>
+      <c r="D87">
+        <v>-0.07911300199140213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01518654778254806</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002852927089845196</v>
+      </c>
+      <c r="C88">
+        <v>-0.06863051002585682</v>
+      </c>
+      <c r="D88">
+        <v>-0.01677134668339402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01744956736152888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008508497869737774</v>
+      </c>
+      <c r="C89">
+        <v>-0.1620689225845182</v>
+      </c>
+      <c r="D89">
+        <v>0.3430950398866409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005790149511849454</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00756064458318493</v>
+      </c>
+      <c r="C90">
+        <v>-0.1408253633427554</v>
+      </c>
+      <c r="D90">
+        <v>0.319181875731617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001528864597467693</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01013332079692704</v>
+      </c>
+      <c r="C91">
+        <v>-0.1047220877397111</v>
+      </c>
+      <c r="D91">
+        <v>-0.02040098813304429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01453195803588549</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007031538702255756</v>
+      </c>
+      <c r="C92">
+        <v>-0.1508465628728822</v>
+      </c>
+      <c r="D92">
+        <v>0.327539119930972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003531669944517075</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005523947174479738</v>
+      </c>
+      <c r="C93">
+        <v>-0.1250283189732386</v>
+      </c>
+      <c r="D93">
+        <v>0.312655382434652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003637377010516749</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0221927692179883</v>
+      </c>
+      <c r="C94">
+        <v>-0.1555239292686224</v>
+      </c>
+      <c r="D94">
+        <v>-0.03553858477321137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004656331439871425</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0160118114660504</v>
+      </c>
+      <c r="C95">
+        <v>-0.1239176829031555</v>
+      </c>
+      <c r="D95">
+        <v>-0.06957932642060205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004279137265781829</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03462887133288984</v>
+      </c>
+      <c r="C97">
+        <v>-0.1787373998136262</v>
+      </c>
+      <c r="D97">
+        <v>-0.04137717818823531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.008710563706462912</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0362915873381217</v>
+      </c>
+      <c r="C98">
+        <v>-0.2541783069715997</v>
+      </c>
+      <c r="D98">
+        <v>-0.04388409406854349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9814921191777798</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982719988355764</v>
+      </c>
+      <c r="C99">
+        <v>0.109833183856031</v>
+      </c>
+      <c r="D99">
+        <v>0.03200411565544227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002208226164910396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003272166955401767</v>
+      </c>
+      <c r="C101">
+        <v>-0.04833667838579496</v>
+      </c>
+      <c r="D101">
+        <v>-0.01463570575068661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
